--- a/biology/Botanique/Amaranthus_cruentus/Amaranthus_cruentus.xlsx
+++ b/biology/Botanique/Amaranthus_cruentus/Amaranthus_cruentus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Amarante étalée, Amarante couleur de sang, Amarante rouge, Amarante paniculée, Amarante sanglante, Épinard du Soudan ou Queue de renard (Amaranthus cruentus L.) est une espèce de plante herbacée de la famille des Amaranthacées ou des Chénopodiacées selon la classification classique de Cronquist (1981)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Amarante étalée, Amarante couleur de sang, Amarante rouge, Amarante paniculée, Amarante sanglante, Épinard du Soudan ou Queue de renard (Amaranthus cruentus L.) est une espèce de plante herbacée de la famille des Amaranthacées ou des Chénopodiacées selon la classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
-La floraison a lieu de juin à septembre[2]. 
+La floraison a lieu de juin à septembre. 
 La couleur dominante des fleurs est le rose.
 Inflorescence : épi simple
 Sexualité : hermaphrodite
@@ -548,10 +562,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : tonsures annuelles acidophiles, européennes
-L'espèce est originaire d'Amérique tropicale. Elle a été introduite dans tout le bassin méditerranéen[2].
+L'espèce est originaire d'Amérique tropicale. Elle a été introduite dans tout le bassin méditerranéen.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante ornementale.
 Cette plante est comestible, elle était sacrée pour les Aztèques, Incas et Mayas qui en consommaient les graines et les feuilles.
